--- a/Threat intelligence/暗網相關資訊.xlsx
+++ b/Threat intelligence/暗網相關資訊.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\NICS\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\NICS\Desktop\112_ThreatIncidents\Threat intelligence\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7395D9DF-ADB6-4785-83EE-120847F35ABE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3DEB228C-A3DF-4B0D-95F4-98BDF2F8A58C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="33105" yWindow="3975" windowWidth="21600" windowHeight="11235" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="22932" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="暗網網址" sheetId="1" r:id="rId1"/>
@@ -26,11 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="22">
-  <si>
-    <t>種類</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="40">
   <si>
     <t>名稱</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -107,6 +103,74 @@
   </si>
   <si>
     <t>暗网爬虫</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>編號</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Vice Society</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://vsociethok6sbprvevl4dlwbqrzyhxcxaqpvcqt5belwvsuxaxsutyad.onion/</t>
+  </si>
+  <si>
+    <t>Torch</t>
+  </si>
+  <si>
+    <t>http://xmh57jrknzkhv6y3ls3ubitzfqnkrwxhopf5aygthi7d6rplyvk3noyd.onion/</t>
+  </si>
+  <si>
+    <t>備註</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>強大暗網搜尋引擎</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>類別</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>項目</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>暗網</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>深網</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://deepmlzxkh7tpnuiv32nzzg6oxza4nvpd6b7ukujwxzgxj2f33johuqd.onion/</t>
+  </si>
+  <si>
+    <t>DEEP LINK GUIDE</t>
+  </si>
+  <si>
+    <t>http://wolft3xm254bvmv63hoe5v66kazyp7qoy2donh6fniwhur3qfynwljad.onion/index.html#atm-hacking</t>
+  </si>
+  <si>
+    <t>WOLF HACKER GROUP</t>
+  </si>
+  <si>
+    <t>駭客組織</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TOR66</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://tor66sewebgixwhcqfnp5inzp5x5uohhdy3kvtnyfxc2e5mxiuh34iid.onion/</t>
+  </si>
+  <si>
+    <t>有針對銀行的駭客攻擊(尚未細查)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -114,7 +178,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -137,13 +201,53 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Microsoft JhengHei UI"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Microsoft JhengHei UI"/>
+      <family val="2"/>
+      <charset val="136"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Microsoft JhengHei UI"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Microsoft JhengHei UI"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF0070C0"/>
+      <name val="Microsoft JhengHei UI"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -174,15 +278,42 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -200,6 +331,61 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>17930</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>170330</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>84803</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="圖片 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B8535FE5-3E72-4404-9BAC-6311E96AE109}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="17167413" y="1810871"/>
+          <a:ext cx="2904564" cy="1142638"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -465,145 +651,292 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C6"/>
+  <dimension ref="A1:F11"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:C1"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="35.875" style="1" customWidth="1"/>
-    <col min="2" max="2" width="33.25" style="1" customWidth="1"/>
-    <col min="3" max="3" width="103.125" style="1" customWidth="1"/>
-    <col min="4" max="16384" width="9" style="1"/>
+    <col min="1" max="2" width="9" style="4"/>
+    <col min="3" max="3" width="35.875" style="4" customWidth="1"/>
+    <col min="4" max="4" width="33.25" style="5" customWidth="1"/>
+    <col min="5" max="5" width="124.125" style="5" customWidth="1"/>
+    <col min="6" max="6" width="70.375" style="4" customWidth="1"/>
+    <col min="7" max="16384" width="9" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="F1" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A2" s="4">
+        <v>1</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" s="6" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A2" s="1" t="s">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A3" s="4">
+        <v>2</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="E3" s="5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A4" s="4">
+        <v>3</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C4" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A3" s="1" t="s">
+      <c r="D4" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" s="11" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="11">
+        <v>4</v>
+      </c>
+      <c r="B5" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="C5" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="D5" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="E5" s="12" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A6" s="4">
         <v>5</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B6" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A7" s="4">
         <v>6</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="B7" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" s="11" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="11">
         <v>7</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A4" s="1" t="s">
+      <c r="B8" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="C8" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="D8" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="E8" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="F8" s="12" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" s="11" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="11">
+        <v>8</v>
+      </c>
+      <c r="B9" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="C9" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="D9" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="E9" s="12" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" s="11" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="11">
+        <v>9</v>
+      </c>
+      <c r="B10" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="C10" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="D10" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="E10" s="12" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" s="11" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="11">
         <v>10</v>
       </c>
-      <c r="B4" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A5" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A6" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>14</v>
+      <c r="B11" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="C11" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="D11" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="E11" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="F11" s="13" t="s">
+        <v>39</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E7E4544C-2318-4416-AB64-05C53BF2810B}">
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:C4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="46.25" customWidth="1"/>
-    <col min="2" max="2" width="68.25" customWidth="1"/>
+    <col min="1" max="1" width="9" style="10"/>
+    <col min="2" max="2" width="46.25" style="10" customWidth="1"/>
+    <col min="3" max="3" width="68.25" style="10" customWidth="1"/>
+    <col min="4" max="16384" width="9" style="10"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" s="7">
+        <v>1</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="C2" s="9" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" s="7">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2" s="4" t="s">
+      <c r="B3" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="B2" s="3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
+      <c r="C3" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="B3" s="3" t="s">
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4" s="7">
+        <v>3</v>
+      </c>
+      <c r="B4" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="C4" s="9" t="s">
         <v>19</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>21</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>20</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1" xr:uid="{C193FFC7-B578-4624-9994-86EE997B2561}"/>
-    <hyperlink ref="B3" r:id="rId2" xr:uid="{A5897CB0-330B-444A-96C7-75A6818DCE32}"/>
-    <hyperlink ref="B4" r:id="rId3" xr:uid="{AE84C611-48BF-4828-866E-61FAA6C335EE}"/>
+    <hyperlink ref="C2" r:id="rId1" xr:uid="{C193FFC7-B578-4624-9994-86EE997B2561}"/>
+    <hyperlink ref="C3" r:id="rId2" xr:uid="{A5897CB0-330B-444A-96C7-75A6818DCE32}"/>
+    <hyperlink ref="C4" r:id="rId3" xr:uid="{AE84C611-48BF-4828-866E-61FAA6C335EE}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId4"/>
